--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -70,94 +70,97 @@
     <t>beautiful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>gift</t>
@@ -166,103 +169,103 @@
     <t>pop</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>fan</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>years</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>pan</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>makes</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>quality</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>buy</t>
   </si>
   <si>
     <t>really</t>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2403100775193799</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.978494623655914</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +807,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +833,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -882,13 +885,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8622291021671826</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="L8">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M8">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -934,13 +937,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -960,13 +963,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -986,13 +989,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1012,13 +1015,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.696969696969697</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L13">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1038,13 +1041,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6711864406779661</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1064,13 +1067,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6619718309859155</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1090,13 +1093,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6571428571428571</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>797</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>797</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1108,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1116,13 +1119,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6438356164383562</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1142,13 +1145,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6388888888888888</v>
+        <v>0.625</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1160,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1168,13 +1171,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6348314606741573</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L19">
-        <v>791</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>791</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1186,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>455</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1194,13 +1197,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.631578947368421</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1212,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1220,13 +1223,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6285714285714286</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L21">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1238,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1246,13 +1249,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1264,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1272,13 +1275,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.6122448979591837</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1290,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1298,13 +1301,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1316,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1324,13 +1327,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.6029411764705882</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1350,13 +1353,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5846153846153846</v>
+        <v>0.578125</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1376,13 +1379,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5662650602409639</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1394,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1402,13 +1405,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5480769230769231</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1420,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1428,13 +1431,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.546875</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1454,13 +1457,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5294117647058824</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1480,13 +1483,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.5238095238095238</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1506,13 +1509,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.5076923076923077</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1524,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1532,13 +1535,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.5042735042735043</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L33">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M33">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1550,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1558,13 +1561,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4736842105263158</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1576,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1584,13 +1587,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4670658682634731</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L35">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1602,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1610,13 +1613,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.4489795918367347</v>
+        <v>0.44</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1628,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1636,13 +1639,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.4444444444444444</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1662,13 +1665,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.44</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1680,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1688,13 +1691,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.4210526315789473</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1706,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1714,13 +1717,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.4156626506024096</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L40">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1732,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1740,13 +1743,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.4126984126984127</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1758,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1766,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.4098360655737705</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L42">
         <v>25</v>
@@ -1784,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1792,13 +1795,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.4032258064516129</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1810,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1818,13 +1821,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.3684210526315789</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1836,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1844,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.3651960784313725</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L45">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1862,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>259</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1870,13 +1873,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.3383458646616541</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1888,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>88</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1896,13 +1899,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.3055555555555556</v>
+        <v>0.3073929961089494</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1914,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>50</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1922,13 +1925,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2949640287769784</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L48">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1948,13 +1951,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.2918287937743191</v>
+        <v>0.2805755395683453</v>
       </c>
       <c r="L49">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1966,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1974,13 +1977,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.287037037037037</v>
+        <v>0.2712328767123288</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>77</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2000,13 +2003,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.2772277227722773</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2018,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2026,13 +2029,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.2727272727272727</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L52">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2044,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>152</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2052,13 +2055,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.2702702702702703</v>
+        <v>0.2303552206673843</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2070,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>81</v>
+        <v>715</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2078,13 +2081,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.2561643835616438</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L54">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2096,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>543</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2104,13 +2107,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.2497308934337998</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L55">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2122,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>697</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2130,13 +2133,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.2072072072072072</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2148,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>88</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2156,13 +2159,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.2052980132450331</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2182,13 +2185,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1943573667711599</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L58">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2200,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>257</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2208,13 +2211,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1879194630872483</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2234,13 +2237,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1841059602649007</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L60">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M60">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2252,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2260,13 +2263,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.1687979539641944</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L61">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2278,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>650</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2286,13 +2289,13 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.1338199513381995</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L62">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M62">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2304,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>356</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2312,13 +2315,13 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.1333333333333333</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2330,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>143</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2338,13 +2341,13 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.127147766323024</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L64">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2356,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>254</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2364,25 +2367,25 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.1242937853107345</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>155</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2390,7 +2393,7 @@
         <v>74</v>
       </c>
       <c r="K66">
-        <v>0.1182266009852217</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L66">
         <v>24</v>
@@ -2408,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2416,13 +2419,13 @@
         <v>75</v>
       </c>
       <c r="K67">
-        <v>0.1159029649595687</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L67">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M67">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2434,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2442,13 +2445,13 @@
         <v>76</v>
       </c>
       <c r="K68">
-        <v>0.1092436974789916</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2460,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2468,13 +2471,13 @@
         <v>77</v>
       </c>
       <c r="K69">
-        <v>0.1068181818181818</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L69">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M69">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2486,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>393</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2494,13 +2497,13 @@
         <v>78</v>
       </c>
       <c r="K70">
-        <v>0.0996309963099631</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L70">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2512,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2520,13 +2523,13 @@
         <v>79</v>
       </c>
       <c r="K71">
-        <v>0.09259259259259259</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2538,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>245</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2546,13 +2549,13 @@
         <v>80</v>
       </c>
       <c r="K72">
-        <v>0.08991228070175439</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L72">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M72">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2564,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2572,25 +2575,25 @@
         <v>81</v>
       </c>
       <c r="K73">
-        <v>0.06743185078909612</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L73">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M73">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>650</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2598,25 +2601,25 @@
         <v>82</v>
       </c>
       <c r="K74">
-        <v>0.06682577565632458</v>
+        <v>0.06599713055954089</v>
       </c>
       <c r="L74">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M74">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>391</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2624,13 +2627,13 @@
         <v>83</v>
       </c>
       <c r="K75">
-        <v>0.06557377049180328</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2642,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>342</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2650,13 +2653,13 @@
         <v>84</v>
       </c>
       <c r="K76">
-        <v>0.05690298507462686</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L76">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2668,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>1011</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2676,13 +2679,13 @@
         <v>85</v>
       </c>
       <c r="K77">
-        <v>0.04428044280442804</v>
+        <v>0.06156716417910447</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2694,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>518</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2702,13 +2705,13 @@
         <v>86</v>
       </c>
       <c r="K78">
-        <v>0.02420051858254105</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L78">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M78">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2720,7 +2723,33 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1129</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K79">
+        <v>0.02599653379549393</v>
+      </c>
+      <c r="L79">
+        <v>30</v>
+      </c>
+      <c r="M79">
+        <v>33</v>
+      </c>
+      <c r="N79">
+        <v>0.91</v>
+      </c>
+      <c r="O79">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
